--- a/api_yamdb-master/data/YaMDb.xlsx
+++ b/api_yamdb-master/data/YaMDb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\api_yamdb-master\api_yamdb-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A7E7A9-BB36-4DBB-B03B-E36ABF08FCBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB3814C-A4D0-4839-8AA3-2E51A514A990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="261">
   <si>
     <t>id</t>
   </si>
@@ -821,6 +821,24 @@
   </si>
   <si>
     <t>Почему обязательно  нужно любой разговор сводить к навозу? Хорошая детская сказка, ва вы тут пишете про какие-то субстанции неприятные. Фу таким быть.</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>is_superuser</t>
+  </si>
+  <si>
+    <t>is_staff</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>date_joined</t>
   </si>
 </sst>
 </file>
@@ -5468,9 +5486,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5480,7 +5500,7 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5502,8 +5522,26 @@
       <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="12">
         <v>100</v>
       </c>
@@ -5517,7 +5555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" s="12">
         <v>101</v>
       </c>
@@ -5531,7 +5569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" s="12">
         <v>102</v>
       </c>
@@ -5545,7 +5583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" s="12">
         <v>103</v>
       </c>
@@ -5559,7 +5597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" s="12">
         <v>104</v>
       </c>
@@ -5573,12 +5611,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10086,7 +10125,7 @@
   </sheetPr>
   <dimension ref="A1:C1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
